--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1157987.540218195</v>
+        <v>1151900.298912144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10863960.88892694</v>
+        <v>11120393.86061059</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>17.82989702044695</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>127.275039995342</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7061800830392804</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>277.7302627437543</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>130.2305510842733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>120.3332554667403</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>8.794302634934395</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>363.3655192809605</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>17.84935903930831</v>
       </c>
       <c r="U10" t="n">
-        <v>147.1708583585295</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>95.13304024183748</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>173.626889274476</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>229.7965692041388</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734097636</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>122.4179473152593</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.6965697803346</v>
+        <v>39.83255574579454</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>185.2536037687257</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.3135037226529</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>48.13676080754377</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>212.4076860934765</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>904.8820361188232</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C2" t="n">
-        <v>904.8820361188232</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>546.6163375120727</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>546.6163375120727</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>135.6304327224652</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2309.079474466685</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2309.079474466685</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1978.016587123114</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1978.016587123114</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1604.550828862034</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>1604.550828862034</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1635.732806859306</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.104059019167</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.104059019167</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1149.985721523005</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>895.3012333171177</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>605.8840632801572</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>377.8945123821399</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386098</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2057.32755894284</v>
+        <v>1922.158427600214</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>1553.195910659802</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>1194.930212053052</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>809.1419594548074</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>398.1560546651999</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.32755894284</v>
+        <v>2308.758267664336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>673.036065727045</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="C7" t="n">
-        <v>673.036065727045</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D7" t="n">
-        <v>522.9194263147092</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E7" t="n">
-        <v>375.0063327323161</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>228.1163852344057</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>60.12992054268432</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329318</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>673.036065727045</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>673.036065727045</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X7" t="n">
-        <v>673.036065727045</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y7" t="n">
-        <v>673.036065727045</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2045.657199403897</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,25 +4804,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.796531379709</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.657199403897</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.3382468580007</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1909.264892493232</v>
       </c>
       <c r="U10" t="n">
-        <v>1556.870499972636</v>
+        <v>1620.162025618876</v>
       </c>
       <c r="V10" t="n">
-        <v>1302.186011766749</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W10" t="n">
-        <v>1012.768841729788</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X10" t="n">
-        <v>784.7792908317706</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.9867116882405</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1715.892666966217</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1346.930150025805</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>988.6644514190546</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>988.6644514190546</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>577.6785466294471</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>162.6060964744435</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993394</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>2866.09759726723</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>2866.09759726723</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2492.63183900615</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2102.492507030338</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927788</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1751.913851851648</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1530.147236421175</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.044369546818</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>986.3598813409312</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>696.9427113039706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>468.9531604059532</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.1605812624231</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1822.632236038045</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1453.669719097633</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1095.404020490883</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>709.6157678926384</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>298.6298631030308</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609172</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609172</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339058</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077978</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102167</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811085</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999815</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387302</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332748</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601598</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031464</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215812</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438128</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>752.7622949738586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>583.8261120459517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>433.709472633616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>433.709472633616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>433.709472633616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791191</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764917</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760409</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935979</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1672.610059882606</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1383.192889845646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1155.203338947628</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.4107598040983</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3023.484406741616</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741616</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2009.937693195925</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1720.862466540123</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1466.177978334236</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y22" t="n">
-        <v>3023.484406741616</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,10 +6007,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6320,13 +6320,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,19 +6475,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558404</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630497</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218161</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866303</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866303</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388644</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="35">
@@ -6919,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558405</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630498</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>2438.670847218162</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>2337.686731866304</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>929.7309773356195</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356195</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>199.474724145483</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>181.1251564493146</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>43.60786094376891</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70888054695368</v>
+        <v>177.5728945814937</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>83.27114962944194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>131.6952193743935</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.30196929556064</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809272.4541268239</v>
+        <v>956326.5261809173</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809272.4541268242</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="H2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
@@ -26343,7 +26343,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598195</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8550.515172066862</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8550.515172066862</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26453,13 +26453,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139333</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871112.6753207842</v>
+        <v>-871112.6753207848</v>
       </c>
       <c r="C6" t="n">
         <v>243639.1082551351</v>
       </c>
       <c r="D6" t="n">
-        <v>83623.64550713642</v>
+        <v>83623.64550713656</v>
       </c>
       <c r="E6" t="n">
-        <v>309289.8080830988</v>
+        <v>28499.66754439033</v>
       </c>
       <c r="F6" t="n">
-        <v>309289.8080830985</v>
+        <v>353912.1293517453</v>
       </c>
       <c r="G6" t="n">
-        <v>44416.4751462828</v>
+        <v>353912.1293517452</v>
       </c>
       <c r="H6" t="n">
-        <v>354259.5086061022</v>
+        <v>353912.1293517454</v>
       </c>
       <c r="I6" t="n">
-        <v>354259.5086061022</v>
+        <v>353912.1293517451</v>
       </c>
       <c r="J6" t="n">
-        <v>186654.3307961196</v>
+        <v>186306.9515417628</v>
       </c>
       <c r="K6" t="n">
-        <v>354259.5086061023</v>
+        <v>353912.1293517453</v>
       </c>
       <c r="L6" t="n">
-        <v>305965.5385979115</v>
+        <v>305618.1593435546</v>
       </c>
       <c r="M6" t="n">
-        <v>354259.5086061023</v>
+        <v>268857.1014162336</v>
       </c>
       <c r="N6" t="n">
-        <v>354259.5086061023</v>
+        <v>353912.1293517453</v>
       </c>
       <c r="O6" t="n">
-        <v>272123.678010651</v>
+        <v>353912.1293517453</v>
       </c>
       <c r="P6" t="n">
-        <v>354259.5086061023</v>
+        <v>353912.1293517453</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,22 +26813,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.198799748375</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>393.717805752507</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>79.3831449848918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>100.8513923365343</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>133.8174400291997</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.0073875717803</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188749</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>138.4572065201945</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,10 +27824,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.90737249004701</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>201.6995902368609</v>
       </c>
       <c r="U10" t="n">
-        <v>139.0409798470834</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353141</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254369</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609551</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306628</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443197</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226399</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789371</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1151900.298912144</v>
+        <v>1155055.218254365</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>1042617.113969142</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11120393.86061059</v>
+        <v>10863960.88892694</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>219.57115407838</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>127.275039995342</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>206.3760037453422</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>277.7302627437543</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.3332554667403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>71.36151060513951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>79.49505480544778</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>17.84935903930831</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>23.46591175453478</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>133.3353942071046</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>147.0633545968148</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>25.52471385612599</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>39.83255574579454</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>185.2536037687257</v>
+        <v>72.6041077643463</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>48.13676080754377</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.13676080754377</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.82863813027318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8253826161913524</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1217.950988797912</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>1166.100135321049</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>1166.100135321049</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>755.114230531442</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>339.4094802557308</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2309.079474466685</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2309.079474466685</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1978.016587123114</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1978.016587123114</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.550828862034</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="Y2" t="n">
-        <v>1604.550828862034</v>
+        <v>1524.3658339278</v>
       </c>
     </row>
     <row r="3">
@@ -4412,7 +4412,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
         <v>909.2465818694945</v>
@@ -4518,13 +4518,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
         <v>1463.519709552058</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1922.158427600214</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="C5" t="n">
-        <v>1553.195910659802</v>
+        <v>1815.096543250394</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.930212053052</v>
+        <v>1456.830844643643</v>
       </c>
       <c r="E5" t="n">
-        <v>809.1419594548074</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>398.1560546651999</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.7955294637004</v>
+        <v>1011.026595295463</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800312</v>
+        <v>842.0904123675558</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800312</v>
+        <v>691.9737729552201</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>544.0606793728269</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>397.1707318749166</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>229.1842671831951</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354876</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374703</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939401</v>
+        <v>1192.675060125702</v>
       </c>
     </row>
     <row r="8">
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,16 +4837,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>146.8101515892014</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1909.264892493232</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1620.162025618876</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1365.477537412989</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1076.060367376028</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>848.0708164780106</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1274.539111149742</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2182.266054653545</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>617.5020034330389</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>396.7094242895088</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>119.599202296584</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2156.827640693835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1867.752414038033</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1613.067925832146</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1323.650755795185</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1095.661204897168</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.8686257536381</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5755,10 +5755,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2009.937693195925</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U22" t="n">
-        <v>1720.862466540123</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V22" t="n">
-        <v>1466.177978334236</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W22" t="n">
-        <v>1176.760808297275</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>948.7712573992578</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.9786782557277</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6469,10 +6469,10 @@
         <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797189</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6727,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797189</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1187.98648192797</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>959.9969310299522</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>739.204351886422</v>
       </c>
     </row>
     <row r="35">
@@ -6928,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,46 +7405,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474266</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,31 +7806,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7848,10 +7848,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>193.327346787835</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>341.8069800164728</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696557</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>249.398447456376</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>18.96245366221345</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>177.5728945814937</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>32.15184655856257</v>
+        <v>144.801342562942</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>131.6952193743935</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>131.6952193743935</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>43.26526345294946</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>144.5956654067399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>956326.5261809173</v>
+        <v>809272.454126824</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956326.5261809174</v>
+        <v>809272.4541268242</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809173</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809173</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809176</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165591</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>3.184502475050977e-10</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26472,16 +26472,16 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-871112.6753207848</v>
       </c>
       <c r="C6" t="n">
-        <v>243639.1082551351</v>
+        <v>243639.1082551354</v>
       </c>
       <c r="D6" t="n">
-        <v>83623.64550713656</v>
+        <v>83623.64550713643</v>
       </c>
       <c r="E6" t="n">
-        <v>28499.66754439033</v>
+        <v>308942.1891532925</v>
       </c>
       <c r="F6" t="n">
-        <v>353912.1293517453</v>
+        <v>308942.1891532926</v>
       </c>
       <c r="G6" t="n">
-        <v>353912.1293517452</v>
+        <v>44381.73722084683</v>
       </c>
       <c r="H6" t="n">
-        <v>353912.1293517454</v>
+        <v>354224.7706806666</v>
       </c>
       <c r="I6" t="n">
-        <v>353912.1293517451</v>
+        <v>354224.7706806663</v>
       </c>
       <c r="J6" t="n">
-        <v>186306.9515417628</v>
+        <v>186619.5928706839</v>
       </c>
       <c r="K6" t="n">
-        <v>353912.1293517453</v>
+        <v>354224.7706806665</v>
       </c>
       <c r="L6" t="n">
-        <v>305618.1593435546</v>
+        <v>305930.8006724758</v>
       </c>
       <c r="M6" t="n">
-        <v>268857.1014162336</v>
+        <v>354224.7706806665</v>
       </c>
       <c r="N6" t="n">
-        <v>353912.1293517453</v>
+        <v>354224.7706806667</v>
       </c>
       <c r="O6" t="n">
-        <v>353912.1293517453</v>
+        <v>272088.9400852153</v>
       </c>
       <c r="P6" t="n">
-        <v>353912.1293517453</v>
+        <v>354224.7706806666</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="E4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,17 +27017,17 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>341.3068326973553</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>341.3068326973553</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>341.3068326973553</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>81.4473984840254</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>79.3831449848918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27590,7 +27590,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>49.55154957999665</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>175.5543663269195</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>133.8174400291997</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>46.91356563188749</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>75.88999854998936</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>65.92599321748347</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>201.6995902368609</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313199</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>491.0077074256852</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
